--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Team Upgradation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E0B5E8-DAB8-442D-AF38-72D5DA417CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B49AD0-A00D-4103-8A4B-B635F42777D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Concepts</t>
   </si>
@@ -133,27 +133,12 @@
     <t>Day-27</t>
   </si>
   <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>https://github.com/RB0896/Full_Stack</t>
-  </si>
-  <si>
-    <t>Gomanth Sainath</t>
-  </si>
-  <si>
     <t>https://docs.oracle.com/javase/8/docs/api/</t>
   </si>
   <si>
-    <t>https://github.com/GomanthSainath/Assignment-Day1.git</t>
-  </si>
-  <si>
     <t>MCQ TEST</t>
   </si>
   <si>
-    <t>15/30</t>
-  </si>
-  <si>
     <t>Day-28</t>
   </si>
   <si>
@@ -182,6 +167,30 @@
   </si>
   <si>
     <t>7:00am:8:00am</t>
+  </si>
+  <si>
+    <t>Anjali</t>
+  </si>
+  <si>
+    <t>Vamshi</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Keerthi</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/javafx-how-to-install-java</t>
+  </si>
+  <si>
+    <t>install of java(1.8),helloworld program</t>
+  </si>
+  <si>
+    <t>compailation,execution,compiler,jvm,.java,.class…</t>
+  </si>
+  <si>
+    <t>7:00am:8:10am</t>
   </si>
 </sst>
 </file>
@@ -632,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,10 +692,10 @@
         <v>45334</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="9" t="s">
@@ -697,11 +706,21 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="4">
+        <v>45335</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
@@ -732,7 +751,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
@@ -961,7 +980,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
@@ -971,7 +990,7 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
@@ -981,7 +1000,7 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
@@ -991,7 +1010,7 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
@@ -1001,7 +1020,7 @@
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
@@ -1011,7 +1030,7 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
@@ -1021,7 +1040,7 @@
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
@@ -1031,7 +1050,7 @@
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
@@ -1985,9 +2004,10 @@
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{C438D4D9-FF94-4163-9A83-2CC81A380B4A}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{64D4F9BF-372A-4548-B3FA-BC075981D704}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{0BC2FB72-8D55-4CAC-85FD-2565647BE3E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1996,7 +2016,7 @@
   <dimension ref="E6:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,42 +2027,37 @@
   <sheetData>
     <row r="6" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{BA4D1F74-267E-4108-A3EC-6863B284671D}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{19397755-44D9-4CAC-961A-54C61207C4B7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Team Upgradation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B49AD0-A00D-4103-8A4B-B635F42777D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9017463A-BB09-48FD-BB35-917055F77297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Concepts</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>7:00am:8:10am</t>
+  </si>
+  <si>
+    <t>Identifiers,variables,datatypes</t>
+  </si>
+  <si>
+    <t>7:10am-8:10am</t>
+  </si>
+  <si>
+    <t>Assignment-1</t>
   </si>
 </sst>
 </file>
@@ -641,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,10 +735,18 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
+      <c r="E7" s="4">
+        <v>45336</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Team Upgradation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9017463A-BB09-48FD-BB35-917055F77297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA86084-1AF6-4382-B722-D562B176173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Concepts</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>Assignment-1</t>
+  </si>
+  <si>
+    <t>package ,import ,eclipse,dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">install eclipse </t>
+  </si>
+  <si>
+    <t>https://www.eclipse.org/downloads/download.php?file=/technology/epp/downloads/release/2023-12/R/eclipse-jee-2023-12-R-win32-x86_64.zip</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>Flow Control assignment</t>
+  </si>
+  <si>
+    <t>Flow Control Statements</t>
   </si>
 </sst>
 </file>
@@ -650,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +680,7 @@
     <col min="6" max="6" width="79.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="71.109375" customWidth="1"/>
-    <col min="9" max="9" width="68.109375" customWidth="1"/>
+    <col min="9" max="9" width="77.88671875" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>55</v>
@@ -753,19 +771,35 @@
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="E8" s="4">
+        <v>45341</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4">
+        <v>45342</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="9" t="s">
         <v>35</v>
@@ -775,9 +809,15 @@
       <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="4">
+        <v>45348</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -785,10 +825,18 @@
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="4">
+        <v>45351</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
@@ -2022,9 +2070,10 @@
     <hyperlink ref="I5" r:id="rId1" xr:uid="{C438D4D9-FF94-4163-9A83-2CC81A380B4A}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{64D4F9BF-372A-4548-B3FA-BC075981D704}"/>
     <hyperlink ref="I6" r:id="rId3" xr:uid="{0BC2FB72-8D55-4CAC-85FD-2565647BE3E1}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{2AC4038F-A9DB-47ED-A438-DE526E2E7869}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Team Upgradation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA86084-1AF6-4382-B722-D562B176173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687E08FB-E293-4674-A72E-74E93FAA0EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Concepts</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>Flow Control Statements</t>
+  </si>
+  <si>
+    <t>naveen</t>
+  </si>
+  <si>
+    <t>Scanner,args,wrapper classes,array</t>
+  </si>
+  <si>
+    <t>Variables,static, instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise instance and static </t>
   </si>
 </sst>
 </file>
@@ -668,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +774,7 @@
       <c r="G7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="3"/>
@@ -834,7 +846,7 @@
       <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="13" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="3"/>
@@ -843,9 +855,15 @@
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4">
+        <v>45352</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
     </row>
@@ -853,10 +871,18 @@
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4">
+        <v>45355</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
@@ -2082,7 +2108,7 @@
   <dimension ref="E6:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2121,6 +2147,9 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
       <c r="F11" s="8"/>
     </row>
   </sheetData>
